--- a/Change Matrix/matrix_all_years_v4_new.xlsx
+++ b/Change Matrix/matrix_all_years_v4_new.xlsx
@@ -8,17 +8,18 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://studentutsedu-my.sharepoint.com/personal/mukesh_ray_student_uts_edu_au/Documents/PhD_UTS/Stage 3/Master Data Sheets/R Calculations/phd_analysis_code/Change Matrix/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{9308C549-9C50-4620-9332-5C724106B42F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="88" documentId="8_{9308C549-9C50-4620-9332-5C724106B42F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F8555FFA-692C-407A-81D2-4459F7C21E72}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="matrix_1990_1995" sheetId="1" r:id="rId1"/>
-    <sheet name="matrix_1995_2000" sheetId="2" r:id="rId2"/>
-    <sheet name="matrix_2000_2005" sheetId="3" r:id="rId3"/>
-    <sheet name="matrix_2005_2010" sheetId="4" r:id="rId4"/>
-    <sheet name="matrix_2010_2015" sheetId="5" r:id="rId5"/>
-    <sheet name="matrix_2015_2020" sheetId="6" r:id="rId6"/>
+    <sheet name="Sheet1" sheetId="7" r:id="rId2"/>
+    <sheet name="matrix_1995_2000" sheetId="2" r:id="rId3"/>
+    <sheet name="matrix_2000_2005" sheetId="3" r:id="rId4"/>
+    <sheet name="matrix_2005_2010" sheetId="4" r:id="rId5"/>
+    <sheet name="matrix_2010_2015" sheetId="5" r:id="rId6"/>
+    <sheet name="matrix_2015_2020" sheetId="6" r:id="rId7"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="36">
   <si>
     <t>Water</t>
   </si>
@@ -175,6 +176,24 @@
   <si>
     <t>Interval Level</t>
   </si>
+  <si>
+    <t>Categories</t>
+  </si>
+  <si>
+    <t>Total Gain</t>
+  </si>
+  <si>
+    <t>Total Loss</t>
+  </si>
+  <si>
+    <t>Year 1995</t>
+  </si>
+  <si>
+    <t>Year 1990</t>
+  </si>
+  <si>
+    <t>Total Area</t>
+  </si>
 </sst>
 </file>
 
@@ -184,7 +203,7 @@
     <numFmt numFmtId="164" formatCode="0.00000"/>
     <numFmt numFmtId="165" formatCode="0.000000"/>
   </numFmts>
-  <fonts count="21" x14ac:knownFonts="1">
+  <fonts count="25" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -342,8 +361,36 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <b/>
+      <i/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
   </fonts>
-  <fills count="36">
+  <fills count="37">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -541,8 +588,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="13">
+  <borders count="21">
     <border>
       <left/>
       <right/>
@@ -690,6 +743,92 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -735,7 +874,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -772,6 +911,47 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="21" fillId="36" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="36" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -3136,8 +3316,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M28"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="G23" sqref="G23"/>
+    <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection sqref="A1:I9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3653,6 +3833,298 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{77398BD3-1171-4BC6-87CB-843BC5E66A5F}">
+  <dimension ref="D5:M14"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D5" sqref="D5:L13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="3" max="3" width="14" customWidth="1"/>
+    <col min="4" max="4" width="4.88671875" customWidth="1"/>
+    <col min="5" max="5" width="10.77734375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.44140625" customWidth="1"/>
+    <col min="9" max="9" width="11.33203125" customWidth="1"/>
+    <col min="11" max="11" width="12" customWidth="1"/>
+    <col min="12" max="12" width="12.77734375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="5" spans="4:13" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="D5" s="20"/>
+      <c r="E5" s="30"/>
+      <c r="F5" s="37" t="s">
+        <v>33</v>
+      </c>
+      <c r="G5" s="37"/>
+      <c r="H5" s="37"/>
+      <c r="I5" s="37"/>
+      <c r="J5" s="37"/>
+      <c r="K5" s="37"/>
+      <c r="L5" s="37"/>
+    </row>
+    <row r="6" spans="4:13" ht="19.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="D6" s="27"/>
+      <c r="E6" s="23" t="s">
+        <v>30</v>
+      </c>
+      <c r="F6" s="35" t="s">
+        <v>0</v>
+      </c>
+      <c r="G6" s="35" t="s">
+        <v>1</v>
+      </c>
+      <c r="H6" s="35" t="s">
+        <v>2</v>
+      </c>
+      <c r="I6" s="35" t="s">
+        <v>3</v>
+      </c>
+      <c r="J6" s="40" t="s">
+        <v>4</v>
+      </c>
+      <c r="K6" s="36" t="s">
+        <v>35</v>
+      </c>
+      <c r="L6" s="38" t="s">
+        <v>32</v>
+      </c>
+      <c r="M6" s="29"/>
+    </row>
+    <row r="7" spans="4:13" x14ac:dyDescent="0.3">
+      <c r="D7" s="34" t="s">
+        <v>34</v>
+      </c>
+      <c r="E7" s="31" t="s">
+        <v>0</v>
+      </c>
+      <c r="F7" s="21">
+        <v>43.3</v>
+      </c>
+      <c r="G7" s="22">
+        <v>1.2</v>
+      </c>
+      <c r="H7" s="22">
+        <v>1.5</v>
+      </c>
+      <c r="I7" s="22">
+        <v>3.5</v>
+      </c>
+      <c r="J7" s="27">
+        <v>7.3</v>
+      </c>
+      <c r="K7" s="20">
+        <f>SUM(F7:J7)</f>
+        <v>56.8</v>
+      </c>
+      <c r="L7" s="26">
+        <f>SUM(G7:J7)</f>
+        <v>13.5</v>
+      </c>
+    </row>
+    <row r="8" spans="4:13" x14ac:dyDescent="0.3">
+      <c r="D8" s="34"/>
+      <c r="E8" s="31" t="s">
+        <v>1</v>
+      </c>
+      <c r="F8" s="22">
+        <v>8.1</v>
+      </c>
+      <c r="G8" s="21">
+        <v>275</v>
+      </c>
+      <c r="H8" s="22">
+        <v>11.7</v>
+      </c>
+      <c r="I8" s="22">
+        <v>64.2</v>
+      </c>
+      <c r="J8" s="27">
+        <v>12</v>
+      </c>
+      <c r="K8" s="20">
+        <f>SUM(F8:J8)</f>
+        <v>371</v>
+      </c>
+      <c r="L8" s="27">
+        <f>F8+H8+I8+J8</f>
+        <v>96</v>
+      </c>
+    </row>
+    <row r="9" spans="4:13" x14ac:dyDescent="0.3">
+      <c r="D9" s="34"/>
+      <c r="E9" s="31" t="s">
+        <v>2</v>
+      </c>
+      <c r="F9" s="22">
+        <v>0.9</v>
+      </c>
+      <c r="G9" s="22">
+        <v>15.4</v>
+      </c>
+      <c r="H9" s="21">
+        <v>646.29999999999995</v>
+      </c>
+      <c r="I9" s="22">
+        <v>80.599999999999994</v>
+      </c>
+      <c r="J9" s="27">
+        <v>36.4</v>
+      </c>
+      <c r="K9" s="20">
+        <f t="shared" ref="K9:K11" si="0">SUM(F9:J9)</f>
+        <v>779.59999999999991</v>
+      </c>
+      <c r="L9" s="27">
+        <f>F9+G9+I9+J9</f>
+        <v>133.29999999999998</v>
+      </c>
+    </row>
+    <row r="10" spans="4:13" x14ac:dyDescent="0.3">
+      <c r="D10" s="34"/>
+      <c r="E10" s="31" t="s">
+        <v>3</v>
+      </c>
+      <c r="F10" s="22">
+        <v>9.3000000000000007</v>
+      </c>
+      <c r="G10" s="22">
+        <v>55.3</v>
+      </c>
+      <c r="H10" s="22">
+        <v>93.7</v>
+      </c>
+      <c r="I10" s="21">
+        <v>12174.9</v>
+      </c>
+      <c r="J10" s="27">
+        <v>804.2</v>
+      </c>
+      <c r="K10" s="20">
+        <f t="shared" si="0"/>
+        <v>13137.4</v>
+      </c>
+      <c r="L10" s="27">
+        <f>F10+G10+H10+J10</f>
+        <v>962.5</v>
+      </c>
+    </row>
+    <row r="11" spans="4:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="D11" s="34"/>
+      <c r="E11" s="39" t="s">
+        <v>4</v>
+      </c>
+      <c r="F11" s="25">
+        <v>10.1</v>
+      </c>
+      <c r="G11" s="25">
+        <v>21.8</v>
+      </c>
+      <c r="H11" s="25">
+        <v>78.099999999999994</v>
+      </c>
+      <c r="I11" s="25">
+        <v>605</v>
+      </c>
+      <c r="J11" s="41">
+        <v>1671.4</v>
+      </c>
+      <c r="K11" s="20">
+        <f t="shared" si="0"/>
+        <v>2386.4</v>
+      </c>
+      <c r="L11" s="27">
+        <f>F11+G11+H11+I11</f>
+        <v>715</v>
+      </c>
+    </row>
+    <row r="12" spans="4:13" x14ac:dyDescent="0.3">
+      <c r="D12" s="34"/>
+      <c r="E12" s="32" t="s">
+        <v>35</v>
+      </c>
+      <c r="F12" s="20">
+        <f>SUM(F7:F11)</f>
+        <v>71.699999999999989</v>
+      </c>
+      <c r="G12" s="20">
+        <f>SUM(G7:G11)</f>
+        <v>368.7</v>
+      </c>
+      <c r="H12" s="20">
+        <f>SUM(H7:H11)</f>
+        <v>831.30000000000007</v>
+      </c>
+      <c r="I12" s="20">
+        <f>SUM(I7:I11)</f>
+        <v>12928.199999999999</v>
+      </c>
+      <c r="J12" s="20">
+        <f>SUM(J7:J11)</f>
+        <v>2531.3000000000002</v>
+      </c>
+      <c r="K12" s="20">
+        <v>16731.2</v>
+      </c>
+      <c r="L12" s="27">
+        <f>SUM(L7:L11)</f>
+        <v>1920.3</v>
+      </c>
+    </row>
+    <row r="13" spans="4:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="D13" s="34"/>
+      <c r="E13" s="33" t="s">
+        <v>31</v>
+      </c>
+      <c r="F13" s="24">
+        <f>SUM(F8:F11)</f>
+        <v>28.4</v>
+      </c>
+      <c r="G13" s="25">
+        <f>G7+G9+G10+G11</f>
+        <v>93.7</v>
+      </c>
+      <c r="H13" s="25">
+        <f>H7+H8+H10+H11</f>
+        <v>185</v>
+      </c>
+      <c r="I13" s="25">
+        <f>I7+I8+I9+I11</f>
+        <v>753.3</v>
+      </c>
+      <c r="J13" s="25">
+        <f>J7+J8+J9+J10</f>
+        <v>859.90000000000009</v>
+      </c>
+      <c r="K13" s="25">
+        <f>SUM(F13:J13)</f>
+        <v>1920.3000000000002</v>
+      </c>
+      <c r="L13" s="28"/>
+    </row>
+    <row r="14" spans="4:13" x14ac:dyDescent="0.3">
+      <c r="D14" s="22"/>
+      <c r="E14" s="42"/>
+      <c r="F14" s="20"/>
+      <c r="G14" s="20"/>
+      <c r="H14" s="20"/>
+      <c r="I14" s="20"/>
+      <c r="J14" s="20"/>
+      <c r="K14" s="20"/>
+      <c r="L14" s="20"/>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="D7:D13"/>
+    <mergeCell ref="F5:L5"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:J21"/>
   <sheetViews>
@@ -3998,7 +4470,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:J10"/>
   <sheetViews>
@@ -4287,7 +4759,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:J10"/>
   <sheetViews>
@@ -4574,7 +5046,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:J10"/>
   <sheetViews>
@@ -4861,7 +5333,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:J10"/>
   <sheetViews>
